--- a/candi/Karthi Demo file.xlsx
+++ b/candi/Karthi Demo file.xlsx
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,14 +216,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -593,10 +593,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -605,7 +605,7 @@
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -879,5 +879,6 @@
     <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>